--- a/REVER_DailyTracker_20200715.xlsx
+++ b/REVER_DailyTracker_20200715.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5782D-6CC8-492F-B83C-7FE5335007DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92C946-4AE5-4450-AA6B-B569990D8582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
   <si>
     <t>Task</t>
   </si>
@@ -322,6 +322,9 @@
   <si>
     <t>1. Correction of POC task has been completed and tested in all SSC and running smooth.
 2. CommunicationBoard task has been completed and to be tested.</t>
+  </si>
+  <si>
+    <t>Email Merge from Google form</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -470,6 +473,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,22 +791,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -823,7 +827,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -833,8 +837,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -846,7 +850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -857,10 +861,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -874,9 +878,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -890,9 +894,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -906,8 +910,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -924,19 +928,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -954,13 +958,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -974,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -988,7 +992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1004,12 +1008,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1050,12 +1054,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1077,12 +1081,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1114,12 +1118,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1151,12 +1155,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1196,12 +1200,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1241,12 +1245,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1302,12 +1306,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1323,12 +1327,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1336,22 +1340,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1382,18 +1386,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1425,7 +1429,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1434,46 +1438,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1490,22 +1494,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1528,16 +1532,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44027</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1546,46 +1556,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1606,18 +1616,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1649,7 +1659,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1658,46 +1668,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1718,18 +1728,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1761,7 +1771,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1770,46 +1780,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1830,18 +1840,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1885,7 +1895,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1894,46 +1904,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1954,18 +1964,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1997,7 +2007,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2006,46 +2016,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2066,18 +2076,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2100,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2109,7 +2119,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2118,46 +2128,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2178,18 +2188,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2212,7 +2222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2221,7 +2231,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2230,46 +2240,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2290,18 +2300,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2333,7 +2343,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2342,46 +2352,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200715.xlsx
+++ b/REVER_DailyTracker_20200715.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92C946-4AE5-4450-AA6B-B569990D8582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0020ADA-551F-48D7-A1F9-6252AF61B248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="83">
   <si>
     <t>Task</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Email Merge from Google form</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>creditidetails error correction</t>
   </si>
 </sst>
 </file>
@@ -795,18 +801,18 @@
       <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -827,7 +833,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -837,8 +843,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -850,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -861,10 +867,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -878,9 +884,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -894,9 +900,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -910,8 +916,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -928,19 +934,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -958,13 +964,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -978,7 +984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -992,7 +998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1008,12 +1014,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1054,12 +1060,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1081,12 +1087,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1118,12 +1124,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1155,12 +1161,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1200,12 +1206,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1245,12 +1251,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1306,12 +1312,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1327,12 +1333,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1340,22 +1346,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1386,18 +1392,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1429,7 +1435,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1438,46 +1444,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1494,22 +1500,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1547,7 +1553,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1556,46 +1562,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1616,18 +1622,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1659,7 +1665,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1668,46 +1674,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1724,22 +1730,22 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1762,16 +1768,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1780,46 +1792,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1840,18 +1852,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1895,7 +1907,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1904,46 +1916,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1964,18 +1976,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2007,7 +2019,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2016,46 +2028,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2076,18 +2088,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2119,7 +2131,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2128,46 +2140,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2188,18 +2200,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2231,7 +2243,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2240,46 +2252,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2300,18 +2312,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2343,7 +2355,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2352,46 +2364,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
